--- a/metadata/wcs10/WLTLCATION/01-WLTLCATION.xlsx
+++ b/metadata/wcs10/WLTLCATION/01-WLTLCATION.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rothamsted.sharepoint.com/sites/e-RA/Shared Documents/General/Other long-term experiments/LT Liming expts/e-RA data/FAIRIFIED data/CATION reanalysis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="118" documentId="8_{9F585431-EC0E-4B04-9E74-604B4A04C2D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A666FBBE-AEEB-43ED-8291-565CF0696B2E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7889A6F5-A426-4514-B757-3BFBD710B57F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="5" r:id="rId1"/>
@@ -2070,23 +2070,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7899FDC-4EBC-4071-B09C-8C09A9A535C6}">
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="57.54296875" style="12" customWidth="1"/>
-    <col min="2" max="2" width="46.7265625" customWidth="1"/>
-    <col min="3" max="3" width="91.08984375" customWidth="1"/>
+    <col min="1" max="1" width="57.5703125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="46.7109375" customWidth="1"/>
+    <col min="3" max="3" width="91.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6"/>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
     </row>
-    <row r="2" spans="1:3" ht="127.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>39</v>
       </c>
@@ -2095,7 +2095,7 @@
       </c>
       <c r="C2" s="56"/>
     </row>
-    <row r="3" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>40</v>
       </c>
@@ -2104,7 +2104,7 @@
       </c>
       <c r="C3" s="10"/>
     </row>
-    <row r="4" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>41</v>
       </c>
@@ -2113,49 +2113,49 @@
       </c>
       <c r="C4" s="60"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C5" s="10"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" s="12" t="s">
         <v>42</v>
       </c>
       <c r="C6" s="10"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" s="13" t="s">
         <v>43</v>
       </c>
       <c r="C7" s="10"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" s="13"/>
       <c r="C8" s="10"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" s="12" t="s">
         <v>44</v>
       </c>
       <c r="C9" s="10"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10" s="12" t="s">
         <v>45</v>
       </c>
       <c r="C10" s="10"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
         <v>46</v>
       </c>
       <c r="C11" s="10"/>
     </row>
-    <row r="13" spans="1:3" ht="23.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="18.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
         <v>48</v>
       </c>
@@ -2166,7 +2166,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="70.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>51</v>
       </c>
@@ -2177,7 +2177,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
         <v>53</v>
       </c>
@@ -2188,7 +2188,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>55</v>
       </c>
@@ -2199,7 +2199,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
         <v>57</v>
       </c>
@@ -2210,7 +2210,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>284</v>
       </c>
@@ -2221,7 +2221,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
         <v>59</v>
       </c>
@@ -2232,18 +2232,18 @@
         <v>292</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="17"/>
       <c r="B21" s="18"/>
       <c r="C21" s="18"/>
     </row>
-    <row r="22" spans="1:3" ht="23.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
         <v>61</v>
       </c>
       <c r="B22" s="19"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="20" t="s">
         <v>62</v>
       </c>
@@ -2252,7 +2252,7 @@
       </c>
       <c r="C23" s="22"/>
     </row>
-    <row r="24" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="20" t="s">
         <v>64</v>
       </c>
@@ -2261,7 +2261,7 @@
       </c>
       <c r="C24" s="24"/>
     </row>
-    <row r="25" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="25" t="s">
         <v>66</v>
       </c>
@@ -2270,7 +2270,7 @@
       </c>
       <c r="C25" s="58"/>
     </row>
-    <row r="26" spans="1:3" ht="36.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="26" t="s">
         <v>67</v>
       </c>
@@ -2279,13 +2279,13 @@
       </c>
       <c r="C26" s="59"/>
     </row>
-    <row r="27" spans="1:3" ht="30.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="28" spans="1:3" ht="23.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" ht="30.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="18.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A29" s="15" t="s">
         <v>70</v>
       </c>
@@ -2296,7 +2296,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="27" t="s">
         <v>73</v>
       </c>
@@ -2307,7 +2307,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="27" t="s">
         <v>75</v>
       </c>
@@ -2318,7 +2318,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="27" t="s">
         <v>77</v>
       </c>
@@ -2329,7 +2329,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="27" t="s">
         <v>265</v>
       </c>
@@ -2340,7 +2340,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="27" t="s">
         <v>79</v>
       </c>
@@ -2351,7 +2351,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="47" t="s">
         <v>267</v>
       </c>
@@ -2362,7 +2362,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
         <v>269</v>
       </c>
@@ -2376,7 +2376,7 @@
       <c r="E36" s="45"/>
       <c r="F36" s="45"/>
     </row>
-    <row r="37" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="28" t="s">
         <v>306</v>
       </c>
@@ -2387,7 +2387,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="28" t="s">
         <v>307</v>
       </c>
@@ -2398,7 +2398,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="28" t="s">
         <v>308</v>
       </c>
@@ -2409,7 +2409,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="28" t="s">
         <v>309</v>
       </c>
@@ -2420,7 +2420,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="54" t="s">
         <v>310</v>
       </c>
@@ -2435,7 +2435,7 @@
       <c r="F41" s="45"/>
       <c r="G41" s="45"/>
     </row>
-    <row r="43" spans="1:7" ht="37" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6"/>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
@@ -2481,22 +2481,22 @@
       <selection pane="bottomRight" activeCell="J62" sqref="J62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.81640625" customWidth="1"/>
+    <col min="1" max="1" width="18.85546875" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="42.7265625" customWidth="1"/>
-    <col min="4" max="4" width="13.1796875" customWidth="1"/>
-    <col min="5" max="5" width="44.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.26953125" customWidth="1"/>
-    <col min="7" max="7" width="19.81640625" customWidth="1"/>
-    <col min="8" max="8" width="10.1796875" customWidth="1"/>
-    <col min="9" max="9" width="42.81640625" customWidth="1"/>
-    <col min="10" max="10" width="124.81640625" customWidth="1"/>
-    <col min="11" max="11" width="39.453125" customWidth="1"/>
+    <col min="3" max="3" width="42.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" customWidth="1"/>
+    <col min="5" max="5" width="44.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" customWidth="1"/>
+    <col min="9" max="9" width="42.85546875" customWidth="1"/>
+    <col min="10" max="10" width="124.85546875" customWidth="1"/>
+    <col min="11" max="11" width="39.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="32" t="s">
         <v>137</v>
       </c>
@@ -2531,7 +2531,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>51</v>
       </c>
@@ -2558,7 +2558,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
         <v>51</v>
       </c>
@@ -2584,7 +2584,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="32" t="s">
         <v>51</v>
       </c>
@@ -2613,7 +2613,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
         <v>51</v>
       </c>
@@ -2642,7 +2642,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="32" t="s">
         <v>51</v>
       </c>
@@ -2669,7 +2669,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="32" t="s">
         <v>51</v>
       </c>
@@ -2695,7 +2695,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="32" t="s">
         <v>51</v>
       </c>
@@ -2724,7 +2724,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="32" t="s">
         <v>51</v>
       </c>
@@ -2753,7 +2753,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="31" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="32" t="s">
         <v>51</v>
       </c>
@@ -2779,7 +2779,7 @@
       </c>
       <c r="K10" s="32"/>
     </row>
-    <row r="11" spans="1:12" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="32" t="s">
         <v>51</v>
       </c>
@@ -2804,7 +2804,7 @@
       <c r="K11" s="19"/>
       <c r="L11" s="19"/>
     </row>
-    <row r="12" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="32" t="s">
         <v>51</v>
       </c>
@@ -2828,7 +2828,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="32" t="s">
         <v>51</v>
       </c>
@@ -2853,7 +2853,7 @@
       <c r="K13" s="19"/>
       <c r="L13" s="19"/>
     </row>
-    <row r="14" spans="1:12" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="32" t="s">
         <v>51</v>
       </c>
@@ -2877,7 +2877,7 @@
       </c>
       <c r="K14" s="19"/>
     </row>
-    <row r="15" spans="1:12" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="32" t="s">
         <v>51</v>
       </c>
@@ -2901,7 +2901,7 @@
       </c>
       <c r="K15" s="19"/>
     </row>
-    <row r="16" spans="1:12" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="32" t="s">
         <v>51</v>
       </c>
@@ -2925,7 +2925,7 @@
       </c>
       <c r="K16" s="19"/>
     </row>
-    <row r="17" spans="1:11" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="32" t="s">
         <v>51</v>
       </c>
@@ -2949,7 +2949,7 @@
       </c>
       <c r="K17" s="19"/>
     </row>
-    <row r="18" spans="1:11" ht="31" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="32" t="s">
         <v>51</v>
       </c>
@@ -2973,7 +2973,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>51</v>
       </c>
@@ -2993,7 +2993,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="32" t="s">
         <v>53</v>
       </c>
@@ -3020,7 +3020,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="32" t="s">
         <v>53</v>
       </c>
@@ -3047,7 +3047,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="32" t="s">
         <v>53</v>
       </c>
@@ -3070,7 +3070,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="32" t="s">
         <v>53</v>
       </c>
@@ -3096,7 +3096,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="32" t="s">
         <v>53</v>
       </c>
@@ -3125,7 +3125,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="32" t="s">
         <v>53</v>
       </c>
@@ -3149,7 +3149,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="32" t="s">
         <v>53</v>
       </c>
@@ -3175,7 +3175,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:11" ht="18.75" x14ac:dyDescent="0.35">
       <c r="A27" s="32" t="s">
         <v>53</v>
       </c>
@@ -3204,7 +3204,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="32" t="s">
         <v>53</v>
       </c>
@@ -3231,7 +3231,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="32" t="s">
         <v>53</v>
       </c>
@@ -3256,7 +3256,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="32" t="s">
         <v>55</v>
       </c>
@@ -3283,7 +3283,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="32" t="s">
         <v>55</v>
       </c>
@@ -3307,7 +3307,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="32" t="s">
         <v>55</v>
       </c>
@@ -3334,7 +3334,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="32" t="s">
         <v>55</v>
       </c>
@@ -3361,7 +3361,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="32" t="s">
         <v>55</v>
       </c>
@@ -3387,7 +3387,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="32" t="s">
         <v>55</v>
       </c>
@@ -3416,7 +3416,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="32" t="s">
         <v>55</v>
       </c>
@@ -3442,7 +3442,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A37" s="32" t="s">
         <v>55</v>
       </c>
@@ -3471,7 +3471,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="32" t="s">
         <v>55</v>
       </c>
@@ -3498,7 +3498,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="32" t="s">
         <v>55</v>
       </c>
@@ -3525,7 +3525,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A40" s="32" t="s">
         <v>55</v>
       </c>
@@ -3551,7 +3551,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="32" t="s">
         <v>55</v>
       </c>
@@ -3578,7 +3578,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="32" t="s">
         <v>55</v>
       </c>
@@ -3603,7 +3603,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="32" t="s">
         <v>57</v>
       </c>
@@ -3630,7 +3630,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="32" t="s">
         <v>57</v>
       </c>
@@ -3657,7 +3657,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="32" t="s">
         <v>57</v>
       </c>
@@ -3684,7 +3684,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="32" t="s">
         <v>57</v>
       </c>
@@ -3710,7 +3710,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="32" t="s">
         <v>57</v>
       </c>
@@ -3739,7 +3739,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="32" t="s">
         <v>57</v>
       </c>
@@ -3765,7 +3765,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A49" s="32" t="s">
         <v>57</v>
       </c>
@@ -3794,7 +3794,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="32" t="s">
         <v>57</v>
       </c>
@@ -3814,7 +3814,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="32" t="s">
         <v>57</v>
       </c>
@@ -3837,7 +3837,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A52" s="32" t="s">
         <v>57</v>
       </c>
@@ -3863,7 +3863,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="32" t="s">
         <v>57</v>
       </c>
@@ -3890,7 +3890,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="32" t="s">
         <v>57</v>
       </c>
@@ -3915,7 +3915,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="32" t="s">
         <v>284</v>
       </c>
@@ -3935,7 +3935,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A56" s="32" t="s">
         <v>284</v>
       </c>
@@ -3955,7 +3955,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="32" t="s">
         <v>59</v>
       </c>
@@ -3979,7 +3979,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="32" t="s">
         <v>59</v>
       </c>
@@ -4096,21 +4096,21 @@
       <selection pane="bottomRight" activeCell="J199" sqref="J199"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="11.36328125" customWidth="1"/>
-    <col min="6" max="6" width="17.6328125" customWidth="1"/>
-    <col min="7" max="7" width="12.26953125" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" customWidth="1"/>
     <col min="9" max="9" width="11" style="3" customWidth="1"/>
-    <col min="10" max="10" width="10.81640625" style="5" customWidth="1"/>
-    <col min="11" max="11" width="10.54296875" style="3" customWidth="1"/>
-    <col min="12" max="12" width="10.453125" style="3" customWidth="1"/>
-    <col min="13" max="14" width="8.90625" style="3"/>
-    <col min="15" max="15" width="8.90625" style="5"/>
-    <col min="16" max="17" width="8.90625" style="3"/>
+    <col min="10" max="10" width="10.85546875" style="5" customWidth="1"/>
+    <col min="11" max="11" width="10.5703125" style="3" customWidth="1"/>
+    <col min="12" max="12" width="10.42578125" style="3" customWidth="1"/>
+    <col min="13" max="14" width="8.85546875" style="3"/>
+    <col min="15" max="15" width="8.85546875" style="5"/>
+    <col min="16" max="17" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>147</v>
       </c>
@@ -4166,7 +4166,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>33</v>
       </c>
@@ -4217,7 +4217,7 @@
         <v>0.84030675399999999</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>34</v>
       </c>
@@ -4268,7 +4268,7 @@
         <v>3.9933648434999997E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>35</v>
       </c>
@@ -4319,7 +4319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>36</v>
       </c>
@@ -4370,7 +4370,7 @@
         <v>0.1256588236</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>37</v>
       </c>
@@ -4421,7 +4421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>38</v>
       </c>
@@ -4472,7 +4472,7 @@
         <v>0.89137073550000001</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>39</v>
       </c>
@@ -4523,7 +4523,7 @@
         <v>0.14739013465</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>40</v>
       </c>
@@ -4574,7 +4574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>41</v>
       </c>
@@ -4625,7 +4625,7 @@
         <v>0.85012091400000001</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>42</v>
       </c>
@@ -4676,7 +4676,7 @@
         <v>-4.2623861205000006E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>43</v>
       </c>
@@ -4727,7 +4727,7 @@
         <v>0.62447083999999997</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>44</v>
       </c>
@@ -4778,7 +4778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>45</v>
       </c>
@@ -4829,7 +4829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>46</v>
       </c>
@@ -4880,7 +4880,7 @@
         <v>0.13422123050000001</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>47</v>
       </c>
@@ -4931,7 +4931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>48</v>
       </c>
@@ -4982,7 +4982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>49</v>
       </c>
@@ -5033,7 +5033,7 @@
         <v>2.5747503039999998E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>50</v>
       </c>
@@ -5084,7 +5084,7 @@
         <v>8.45486363E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>51</v>
       </c>
@@ -5135,7 +5135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>52</v>
       </c>
@@ -5186,7 +5186,7 @@
         <v>0.7820607705</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>53</v>
       </c>
@@ -5237,7 +5237,7 @@
         <v>0.62204150049999996</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>54</v>
       </c>
@@ -5288,7 +5288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>55</v>
       </c>
@@ -5339,7 +5339,7 @@
         <v>0.58466846900000002</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>56</v>
       </c>
@@ -5390,7 +5390,7 @@
         <v>2.1562093025E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>57</v>
       </c>
@@ -5441,7 +5441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>58</v>
       </c>
@@ -5492,7 +5492,7 @@
         <v>3.6514518029999998E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>59</v>
       </c>
@@ -5543,7 +5543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>60</v>
       </c>
@@ -5594,7 +5594,7 @@
         <v>0.67262639400000002</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>61</v>
       </c>
@@ -5645,7 +5645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>62</v>
       </c>
@@ -5696,7 +5696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>63</v>
       </c>
@@ -5747,7 +5747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>64</v>
       </c>
@@ -5798,7 +5798,7 @@
         <v>-2.97349929E-4</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -5849,7 +5849,7 @@
         <v>1.3456231949999999</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -5900,7 +5900,7 @@
         <v>0.25947420955</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -5951,7 +5951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -6002,7 +6002,7 @@
         <v>0.47019316664999988</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -6053,7 +6053,7 @@
         <v>1.5766112714999999E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -6104,7 +6104,7 @@
         <v>1.6005850029999995</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -6155,7 +6155,7 @@
         <v>0.45197003005000003</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -6206,7 +6206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -6257,7 +6257,7 @@
         <v>1.3572731330000001</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -6308,7 +6308,7 @@
         <v>9.0139049649999993E-4</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -6359,7 +6359,7 @@
         <v>1.2021231115</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -6410,7 +6410,7 @@
         <v>3.0648276190000004E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -6461,7 +6461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -6512,7 +6512,7 @@
         <v>0.34652808804999996</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -6563,7 +6563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -6614,7 +6614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -6665,7 +6665,7 @@
         <v>0.17284785785000001</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -6716,7 +6716,7 @@
         <v>0.22866296069999997</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -6767,7 +6767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -6818,7 +6818,7 @@
         <v>1.5006139974999999</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -6869,7 +6869,7 @@
         <v>1.2408044444999999</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -6920,7 +6920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -6971,7 +6971,7 @@
         <v>1.3550643760000001</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -7022,7 +7022,7 @@
         <v>0.13498026865000001</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -7073,7 +7073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -7124,7 +7124,7 @@
         <v>0.23722681344999999</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -7175,7 +7175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -7226,7 +7226,7 @@
         <v>0.94833787399999991</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -7277,7 +7277,7 @@
         <v>-2.1610562145E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -7328,7 +7328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -7379,7 +7379,7 @@
         <v>5.09990698E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -7430,7 +7430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>33</v>
       </c>
@@ -7486,7 +7486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>34</v>
       </c>
@@ -7542,7 +7542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>35</v>
       </c>
@@ -7598,7 +7598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>36</v>
       </c>
@@ -7654,7 +7654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>37</v>
       </c>
@@ -7710,7 +7710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>38</v>
       </c>
@@ -7766,7 +7766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>39</v>
       </c>
@@ -7822,7 +7822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>40</v>
       </c>
@@ -7878,7 +7878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>41</v>
       </c>
@@ -7934,7 +7934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>42</v>
       </c>
@@ -7990,7 +7990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>43</v>
       </c>
@@ -8046,7 +8046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>44</v>
       </c>
@@ -8102,7 +8102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>45</v>
       </c>
@@ -8158,7 +8158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>46</v>
       </c>
@@ -8214,7 +8214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>47</v>
       </c>
@@ -8270,7 +8270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>48</v>
       </c>
@@ -8326,7 +8326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>49</v>
       </c>
@@ -8382,7 +8382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>50</v>
       </c>
@@ -8438,7 +8438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>51</v>
       </c>
@@ -8494,7 +8494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>52</v>
       </c>
@@ -8550,7 +8550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>53</v>
       </c>
@@ -8606,7 +8606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>54</v>
       </c>
@@ -8662,7 +8662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>55</v>
       </c>
@@ -8718,7 +8718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>56</v>
       </c>
@@ -8774,7 +8774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>57</v>
       </c>
@@ -8830,7 +8830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>58</v>
       </c>
@@ -8886,7 +8886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>59</v>
       </c>
@@ -8942,7 +8942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>60</v>
       </c>
@@ -8998,7 +8998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>61</v>
       </c>
@@ -9054,7 +9054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>62</v>
       </c>
@@ -9110,7 +9110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>63</v>
       </c>
@@ -9166,7 +9166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>64</v>
       </c>
@@ -9222,7 +9222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>33</v>
       </c>
@@ -9278,7 +9278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>34</v>
       </c>
@@ -9334,7 +9334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>35</v>
       </c>
@@ -9390,7 +9390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>36</v>
       </c>
@@ -9446,7 +9446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>37</v>
       </c>
@@ -9502,7 +9502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>38</v>
       </c>
@@ -9558,7 +9558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>39</v>
       </c>
@@ -9614,7 +9614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>40</v>
       </c>
@@ -9670,7 +9670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>41</v>
       </c>
@@ -9726,7 +9726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>42</v>
       </c>
@@ -9782,7 +9782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>43</v>
       </c>
@@ -9838,7 +9838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>44</v>
       </c>
@@ -9894,7 +9894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>45</v>
       </c>
@@ -9950,7 +9950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>46</v>
       </c>
@@ -10006,7 +10006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>47</v>
       </c>
@@ -10062,7 +10062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>48</v>
       </c>
@@ -10118,7 +10118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>49</v>
       </c>
@@ -10174,7 +10174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>50</v>
       </c>
@@ -10230,7 +10230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>51</v>
       </c>
@@ -10286,7 +10286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>52</v>
       </c>
@@ -10342,7 +10342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>53</v>
       </c>
@@ -10398,7 +10398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>54</v>
       </c>
@@ -10454,7 +10454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>55</v>
       </c>
@@ -10510,7 +10510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>56</v>
       </c>
@@ -10566,7 +10566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>57</v>
       </c>
@@ -10622,7 +10622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>58</v>
       </c>
@@ -10678,7 +10678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>59</v>
       </c>
@@ -10734,7 +10734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>60</v>
       </c>
@@ -10790,7 +10790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>61</v>
       </c>
@@ -10846,7 +10846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>62</v>
       </c>
@@ -10902,7 +10902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>63</v>
       </c>
@@ -10958,7 +10958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>64</v>
       </c>
@@ -11014,7 +11014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>33</v>
       </c>
@@ -11066,7 +11066,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="131" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>34</v>
       </c>
@@ -11118,7 +11118,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="132" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>35</v>
       </c>
@@ -11170,7 +11170,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>36</v>
       </c>
@@ -11222,7 +11222,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="134" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>37</v>
       </c>
@@ -11274,7 +11274,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="135" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>38</v>
       </c>
@@ -11326,7 +11326,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="136" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>39</v>
       </c>
@@ -11378,7 +11378,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="137" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>40</v>
       </c>
@@ -11430,7 +11430,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="138" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>41</v>
       </c>
@@ -11482,7 +11482,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="139" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>42</v>
       </c>
@@ -11534,7 +11534,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="140" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>43</v>
       </c>
@@ -11586,7 +11586,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="141" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>44</v>
       </c>
@@ -11638,7 +11638,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="142" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>45</v>
       </c>
@@ -11690,7 +11690,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="143" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>46</v>
       </c>
@@ -11742,7 +11742,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="144" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>47</v>
       </c>
@@ -11794,7 +11794,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="145" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>48</v>
       </c>
@@ -11846,7 +11846,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="146" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>49</v>
       </c>
@@ -11898,7 +11898,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="147" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>50</v>
       </c>
@@ -11950,7 +11950,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="148" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>51</v>
       </c>
@@ -12002,7 +12002,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="149" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>52</v>
       </c>
@@ -12054,7 +12054,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="150" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>53</v>
       </c>
@@ -12106,7 +12106,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="151" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>54</v>
       </c>
@@ -12158,7 +12158,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="152" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>55</v>
       </c>
@@ -12210,7 +12210,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="153" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>56</v>
       </c>
@@ -12262,7 +12262,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="154" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>57</v>
       </c>
@@ -12314,7 +12314,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="155" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>58</v>
       </c>
@@ -12366,7 +12366,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="156" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>59</v>
       </c>
@@ -12418,7 +12418,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="157" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>60</v>
       </c>
@@ -12470,7 +12470,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="158" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>61</v>
       </c>
@@ -12522,7 +12522,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="159" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>62</v>
       </c>
@@ -12574,7 +12574,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="160" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>63</v>
       </c>
@@ -12626,7 +12626,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="161" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>64</v>
       </c>
@@ -12678,7 +12678,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="162" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>33</v>
       </c>
@@ -12730,7 +12730,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="163" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>34</v>
       </c>
@@ -12782,7 +12782,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="164" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>35</v>
       </c>
@@ -12834,7 +12834,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="165" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>36</v>
       </c>
@@ -12886,7 +12886,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="166" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>37</v>
       </c>
@@ -12938,7 +12938,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="167" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>38</v>
       </c>
@@ -12990,7 +12990,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="168" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>39</v>
       </c>
@@ -13042,7 +13042,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="169" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>40</v>
       </c>
@@ -13094,7 +13094,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="170" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>41</v>
       </c>
@@ -13146,7 +13146,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="171" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>42</v>
       </c>
@@ -13198,7 +13198,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="172" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>43</v>
       </c>
@@ -13250,7 +13250,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="173" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>44</v>
       </c>
@@ -13302,7 +13302,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="174" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>45</v>
       </c>
@@ -13354,7 +13354,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="175" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>46</v>
       </c>
@@ -13406,7 +13406,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="176" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>47</v>
       </c>
@@ -13458,7 +13458,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="177" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>48</v>
       </c>
@@ -13510,7 +13510,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="178" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>49</v>
       </c>
@@ -13562,7 +13562,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="179" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>50</v>
       </c>
@@ -13614,7 +13614,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="180" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>51</v>
       </c>
@@ -13666,7 +13666,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="181" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>52</v>
       </c>
@@ -13718,7 +13718,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="182" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>53</v>
       </c>
@@ -13770,7 +13770,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="183" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>54</v>
       </c>
@@ -13822,7 +13822,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="184" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>55</v>
       </c>
@@ -13874,7 +13874,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="185" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>56</v>
       </c>
@@ -13926,7 +13926,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="186" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>57</v>
       </c>
@@ -13978,7 +13978,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="187" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>58</v>
       </c>
@@ -14030,7 +14030,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="188" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>59</v>
       </c>
@@ -14082,7 +14082,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="189" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>60</v>
       </c>
@@ -14134,7 +14134,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="190" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>61</v>
       </c>
@@ -14186,7 +14186,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="191" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>62</v>
       </c>
@@ -14238,7 +14238,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="192" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>63</v>
       </c>
@@ -14290,7 +14290,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="193" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>64</v>
       </c>
@@ -14360,21 +14360,21 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="45" customWidth="1"/>
-    <col min="2" max="2" width="12.7265625" customWidth="1"/>
-    <col min="3" max="3" width="17.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="42.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.54296875" customWidth="1"/>
-    <col min="6" max="6" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.81640625" customWidth="1"/>
-    <col min="8" max="8" width="18.08984375" customWidth="1"/>
-    <col min="9" max="9" width="23.26953125" customWidth="1"/>
-    <col min="10" max="10" width="35.453125" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" customWidth="1"/>
+    <col min="8" max="8" width="18.140625" customWidth="1"/>
+    <col min="9" max="9" width="23.28515625" customWidth="1"/>
+    <col min="10" max="10" width="35.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="32" t="s">
         <v>72</v>
       </c>
@@ -14406,7 +14406,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="44.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:10" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A2" s="34" t="s">
         <v>93</v>
       </c>
@@ -14438,7 +14438,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="59" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:10" ht="61.5" x14ac:dyDescent="0.35">
       <c r="A3" s="34" t="s">
         <v>101</v>
       </c>
@@ -14470,7 +14470,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="59" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:10" ht="61.5" x14ac:dyDescent="0.35">
       <c r="A4" s="34" t="s">
         <v>103</v>
       </c>
@@ -14502,7 +14502,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="59" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:10" ht="61.5" x14ac:dyDescent="0.35">
       <c r="A5" s="34" t="s">
         <v>104</v>
       </c>
@@ -14534,7 +14534,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="34"/>
       <c r="B7" s="34"/>
       <c r="D7" s="19"/>
@@ -14561,28 +14561,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6627BADD-45CF-4305-A763-6FDE81D0C203}">
   <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="55.1796875" customWidth="1"/>
-    <col min="2" max="2" width="21.453125" customWidth="1"/>
-    <col min="3" max="3" width="10.54296875" customWidth="1"/>
-    <col min="4" max="4" width="32.6328125" customWidth="1"/>
-    <col min="5" max="5" width="35.1796875" customWidth="1"/>
-    <col min="6" max="6" width="18.54296875" customWidth="1"/>
-    <col min="7" max="7" width="10.7265625" customWidth="1"/>
-    <col min="8" max="8" width="13.6328125" customWidth="1"/>
-    <col min="9" max="9" width="22.7265625" customWidth="1"/>
-    <col min="10" max="10" width="14.26953125" customWidth="1"/>
-    <col min="11" max="11" width="11.1796875" customWidth="1"/>
-    <col min="12" max="12" width="24.1796875" customWidth="1"/>
-    <col min="13" max="13" width="34.90625" customWidth="1"/>
+    <col min="1" max="1" width="55.140625" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" customWidth="1"/>
+    <col min="4" max="4" width="32.5703125" customWidth="1"/>
+    <col min="5" max="5" width="35.140625" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" customWidth="1"/>
+    <col min="9" max="9" width="22.7109375" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" customWidth="1"/>
+    <col min="11" max="11" width="11.140625" customWidth="1"/>
+    <col min="12" max="12" width="24.140625" customWidth="1"/>
+    <col min="13" max="13" width="34.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="32" t="s">
         <v>72</v>
       </c>
@@ -14623,7 +14623,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="58" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
         <v>319</v>
       </c>
@@ -14654,7 +14654,7 @@
       </c>
       <c r="K2" s="35"/>
     </row>
-    <row r="3" spans="1:13" ht="87" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="34" t="s">
         <v>320</v>
       </c>
@@ -14695,7 +14695,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>321</v>
       </c>
@@ -14728,7 +14728,7 @@
       <c r="L4" s="32"/>
       <c r="M4" s="19"/>
     </row>
-    <row r="5" spans="1:13" ht="58" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
         <v>322</v>
       </c>
@@ -14769,7 +14769,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="58" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>323</v>
       </c>
@@ -14810,7 +14810,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
         <v>324</v>
       </c>
@@ -14851,10 +14851,10 @@
         <v>115</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
     </row>
   </sheetData>
@@ -14882,21 +14882,21 @@
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.7265625" customWidth="1"/>
-    <col min="2" max="2" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.90625" customWidth="1"/>
-    <col min="8" max="8" width="10.36328125" customWidth="1"/>
-    <col min="11" max="11" width="20.453125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="36.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.7109375" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" customWidth="1"/>
+    <col min="11" max="11" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="36.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="32" t="s">
         <v>72</v>
       </c>
@@ -14934,7 +14934,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
         <v>125</v>
       </c>
@@ -14960,7 +14960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="89" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" ht="107.25" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
         <v>325</v>
       </c>
@@ -15016,13 +15016,13 @@
       <selection activeCell="N31" sqref="N31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.6328125" customWidth="1"/>
-    <col min="2" max="2" width="13.90625" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>286</v>
       </c>
@@ -15030,7 +15030,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>251</v>
       </c>
@@ -15038,7 +15038,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>177</v>
       </c>
@@ -15046,7 +15046,7 @@
         <v>1.43</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>249</v>
       </c>
@@ -15054,7 +15054,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>248</v>
       </c>
@@ -15062,7 +15062,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>179</v>
       </c>
@@ -15070,7 +15070,7 @@
         <v>3.18</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>181</v>
       </c>
@@ -15078,7 +15078,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>187</v>
       </c>
@@ -15086,7 +15086,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>184</v>
       </c>
@@ -15094,7 +15094,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>250</v>
       </c>
@@ -15115,12 +15115,12 @@
       <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="122.6328125" customWidth="1"/>
+    <col min="2" max="2" width="122.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="32" t="s">
         <v>83</v>
       </c>
@@ -15128,7 +15128,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -15136,7 +15136,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -15144,10 +15144,10 @@
         <v>293</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
     </row>
   </sheetData>
@@ -15156,8 +15156,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100622C72A1DD75CA4D87E39FE37B04C3D3" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="df2f41b8cf8911f1d6517ec81b542661">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6584b4ba-af75-4ac8-8379-7172592f8823" xmlns:ns3="a9e4a452-7199-439f-b4c2-3c6fe4528eb3" xmlns:ns4="bf3d09fe-6738-443d-9673-b7ff0d7dd09c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c9b8f8302b5d932af5dac8f68d1b6fe" ns2:_="" ns3:_="" ns4:_="">
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100622C72A1DD75CA4D87E39FE37B04C3D3" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="99b455209db282e8e6e2ab1198281278">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6584b4ba-af75-4ac8-8379-7172592f8823" xmlns:ns3="a9e4a452-7199-439f-b4c2-3c6fe4528eb3" xmlns:ns4="bf3d09fe-6738-443d-9673-b7ff0d7dd09c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e79ca979dda8c4f50da160955269f501" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="6584b4ba-af75-4ac8-8379-7172592f8823"/>
     <xsd:import namespace="a9e4a452-7199-439f-b4c2-3c6fe4528eb3"/>
     <xsd:import namespace="bf3d09fe-6738-443d-9673-b7ff0d7dd09c"/>
@@ -15183,6 +15192,7 @@
                 <xsd:element ref="ns4:TaxCatchAll" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -15262,6 +15272,11 @@
     <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="24" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:description="" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="25" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -15409,15 +15424,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -15430,31 +15436,15 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B838FA4-5E8E-4BAD-BAAB-31F337DFE9AA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74F0D964-31D0-4B5A-8378-6D3110EC5FEE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="6584b4ba-af75-4ac8-8379-7172592f8823"/>
-    <ds:schemaRef ds:uri="a9e4a452-7199-439f-b4c2-3c6fe4528eb3"/>
-    <ds:schemaRef ds:uri="bf3d09fe-6738-443d-9673-b7ff0d7dd09c"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74F0D964-31D0-4B5A-8378-6D3110EC5FEE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DBDA5026-5B46-43A0-B33F-454F3802D3A3}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
